--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Stiffness Method Readings/Planeframe/Input_sheet2.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Stiffness Method Readings/Planeframe/Input_sheet2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Member_Loads" sheetId="4" r:id="rId4"/>
     <sheet name="Joint_Load" sheetId="5" r:id="rId5"/>
     <sheet name="structure_name" sheetId="6" r:id="rId6"/>
+    <sheet name="Parameters Description" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>JointNo</t>
   </si>
@@ -138,7 +139,34 @@
     <t>structure_name</t>
   </si>
   <si>
-    <t>Ex_4_18_Geer</t>
+    <t>ASLAM_KASEM_ALI_EX_6_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p=value of loads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a=application point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ltype=1,2,3,4...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1=concentrated load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2=concentrated momnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3=udl on whole panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4=axial load on panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5=Traiangualr Load on Whole Panel Top is on left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6=Traiangualr Load on Whole Panel Top is on Right</t>
   </si>
 </sst>
 </file>
@@ -582,7 +610,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -619,7 +647,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -628,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -642,16 +670,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -671,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -699,7 +727,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -733,19 +761,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="E2" s="1">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="F2" s="1">
-        <v>10000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -753,19 +781,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="E3" s="1">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="F3" s="1">
-        <v>10000</v>
+        <v>29000</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +807,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -805,13 +833,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>-0.24</v>
+        <v>-40.249000000000002</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -819,13 +847,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>-16</v>
+        <v>-0.125</v>
       </c>
       <c r="B3" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -833,7 +861,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>-80.498000000000005</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
@@ -842,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +883,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -876,16 +904,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -903,13 +931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -925,4 +953,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>